--- a/generated_output/temp/us-core-location.xlsx
+++ b/generated_output/temp/us-core-location.xlsx
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -187,7 +187,7 @@
     <t>Location.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -203,7 +203,7 @@
     <t>Location.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -222,7 +222,7 @@
     <t>Location.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -254,7 +254,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -280,7 +280,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -306,7 +306,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -341,7 +341,7 @@
     <t>Location.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -387,7 +387,7 @@
     <t>Location.operationalStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -409,7 +409,7 @@
     <t>Location.name</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -486,7 +486,7 @@
     <t>Location.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -508,7 +508,7 @@
     <t>Location.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {[]} {[]}
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
@@ -524,7 +524,7 @@
     <t>Location.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {[]} {[]}
+    <t xml:space="preserve">Address
 </t>
   </si>
   <si>
@@ -589,7 +589,7 @@
     <t>Allows an appropriate address to be chosen from a list of many.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="home"/&gt;</t>
+    <t>home</t>
   </si>
   <si>
     <t>The use of an address.</t>
@@ -619,7 +619,7 @@
     <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="both"/&gt;</t>
+    <t>both</t>
   </si>
   <si>
     <t>The type of an address (physical / postal).</t>
@@ -646,7 +646,7 @@
     <t>A renderable, unencoded form.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="137 Nowhere Street, Erewhon 9132"/&gt;</t>
+    <t>137 Nowhere Street, Erewhon 9132</t>
   </si>
   <si>
     <t>Address.text</t>
@@ -664,7 +664,7 @@
     <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="137 Nowhere Street"/&gt;</t>
+    <t>137 Nowhere Street</t>
   </si>
   <si>
     <t>Address.line</t>
@@ -689,7 +689,7 @@
     <t>The name of the city, town, suburb, village or other community or delivery center.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Erewhon"/&gt;</t>
+    <t>Erewhon</t>
   </si>
   <si>
     <t>Address.city</t>
@@ -717,7 +717,7 @@
     <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Madison"/&gt;</t>
+    <t>Madison</t>
   </si>
   <si>
     <t>Address.district</t>
@@ -767,7 +767,7 @@
     <t>A postal code designating a region defined by the postal service.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="9132"/&gt;</t>
+    <t>9132</t>
   </si>
   <si>
     <t>Address.postalCode</t>
@@ -803,7 +803,7 @@
     <t>Location.address.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -858,7 +858,7 @@
     <t>Location.position</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -904,7 +904,7 @@
     <t>Location.position.longitude</t>
   </si>
   <si>
-    <t xml:space="preserve">decimal {[]} {[]}
+    <t xml:space="preserve">decimal
 </t>
   </si>
   <si>
@@ -938,7 +938,7 @@
     <t>Location.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization)
 </t>
   </si>
   <si>
@@ -960,7 +960,7 @@
     <t>Location.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}
+    <t xml:space="preserve">Reference(Location)
 </t>
   </si>
   <si>
@@ -1019,7 +1019,7 @@
     <t>Location.hoursOfOperation.allDay</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -1032,7 +1032,7 @@
     <t>Location.hoursOfOperation.openingTime</t>
   </si>
   <si>
-    <t xml:space="preserve">time {[]} {[]}
+    <t xml:space="preserve">time
 </t>
   </si>
   <si>
@@ -1063,7 +1063,7 @@
     <t>Location.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Endpoint]]}
+    <t xml:space="preserve">Reference(Endpoint)
 </t>
   </si>
   <si>
@@ -1126,67 +1126,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
